--- a/biology/Botanique/Helianthus_atrorubens/Helianthus_atrorubens.xlsx
+++ b/biology/Botanique/Helianthus_atrorubens/Helianthus_atrorubens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthus atrorubens est une espèce nord-américaine de tournesol connue sous le nom commun de tournesol Purpledisc. L'espèce est originaire du sud-est des États-Unis et se rencontre dans tous les États côtiers, de la Louisiane à la Virginie, ainsi que dans les États intérieurs du Kentucky et du Tennessee. 
 Helianthus atrorubens est une plante herbacée vivace atteignant jusqu'à 200 cm de hauteur. La plupart des feuilles sont proches de la base de la tige. Une plante peut produire de 1 à 15 capitules. La plante pousse dans les forêts mixtes et le long des routes.
@@ -512,11 +524,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (22 mai 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (22 mai 2018) :
 sous-espèce Helianthus atrorubens subsp. radula (Pursh) Anashch.
-Selon Tropicos                                           (22 mai 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 mai 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Helianthus atrorubens subsp. atrorubens
 variété Helianthus atrorubens var. alsodes Fernald
 variété Helianthus atrorubens var. atrorubens
